--- a/AAII_Financials/Quarterly/TOP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>TOP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -667,8 +667,7 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -692,8 +691,8 @@
       <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
-        <v>44651</v>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -1487,8 +1486,8 @@
       <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
-        <v>44651</v>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -2572,8 +2571,8 @@
       <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
-        <v>44651</v>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
